--- a/SpecFlowFramework/Locators/DemoQA.xlsx
+++ b/SpecFlowFramework/Locators/DemoQA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jswei_000\Source\Repos\PageObjectFramework\PageObjectFramework\SpecFlow\Locators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jswei_000\Source\Repos\SpecFlowFramework\SpecFlowFramework\Locators\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Cart Total</t>
   </si>
@@ -111,6 +112,93 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Same As Billing Radio</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_9</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_2</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_3</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_4</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_5</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_6</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_7</t>
+  </si>
+  <si>
+    <t>wpsc_checkout_form_18</t>
+  </si>
+  <si>
+    <t>shippingSameBilling</t>
+  </si>
+  <si>
+    <t>make_purchase</t>
+  </si>
+  <si>
+    <t>Purchase Results Table</t>
+  </si>
+  <si>
+    <t>wpsc-purchase-log-transaction-results</t>
+  </si>
+  <si>
+    <t>Search Bar</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Prod Title</t>
+  </si>
+  <si>
+    <t>//h2[@class='prodtitle']/a</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>currentprice</t>
   </si>
 </sst>
 </file>
@@ -435,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,8 +679,181 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/SpecFlowFramework/Locators/DemoQA.xlsx
+++ b/SpecFlowFramework/Locators/DemoQA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Cart Total</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>currentprice</t>
+  </si>
+  <si>
+    <t>Quantity By Row</t>
+  </si>
+  <si>
+    <t>(//input[@name="quantity"][@type="text"])[{0}]</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +738,17 @@
       </c>
       <c r="C18" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
